--- a/backend/src/excel_handler/files/RICH.xlsx
+++ b/backend/src/excel_handler/files/RICH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33634.33</v>
+        <v>37677.34</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11211.44</v>
+        <v>9419.33</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20041.07</v>
+        <v>20196.47</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9747.549999999999</v>
+        <v>9777.290000000001</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3845.71</v>
+        <v>3851.79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3851.79</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/RICH.xlsx
+++ b/backend/src/excel_handler/files/RICH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,68 +436,91 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37677.34</v>
+        <v>19605.53</v>
+      </c>
+      <c r="C2" t="n">
+        <v>19546.74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9419.33</v>
+        <v>9958.08</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10325.78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20196.47</v>
+        <v>3849.85</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3846.39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9777.290000000001</v>
+        <v>3849.85</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3846.39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3851.79</v>
+        <v>9315.83</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9391.33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3851.79</v>
+        <v>37263.31</v>
+      </c>
+      <c r="C7" t="n">
+        <v>37565.3</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/RICH.xlsx
+++ b/backend/src/excel_handler/files/RICH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,79 +443,51 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19605.53</v>
-      </c>
-      <c r="C2" t="n">
-        <v>19546.74</v>
+        <v>33718.91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9958.08</v>
-      </c>
-      <c r="C3" t="n">
-        <v>10325.78</v>
+        <v>11239.64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3849.85</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3846.39</v>
+        <v>19546.74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3849.85</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3846.39</v>
+        <v>10325.78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9315.83</v>
-      </c>
-      <c r="C6" t="n">
-        <v>9391.33</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>37263.31</v>
-      </c>
-      <c r="C7" t="n">
-        <v>37565.3</v>
+        <v>3846.39</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/RICH.xlsx
+++ b/backend/src/excel_handler/files/RICH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,55 +439,73 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33718.91</v>
-      </c>
+        <v>19546.74</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11239.64</v>
+        <v>10325.78</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10368.85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19546.74</v>
+        <v>3846.39</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3850.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10325.78</v>
+        <v>11239.64</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7109.48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3846.39</v>
+        <v>33718.91</v>
+      </c>
+      <c r="C6" t="n">
+        <v>14218.95</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/RICH.xlsx
+++ b/backend/src/excel_handler/files/RICH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -455,6 +460,9 @@
         <v>19546.74</v>
       </c>
       <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>19471.63</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -468,6 +476,9 @@
       <c r="C3" t="n">
         <v>10368.85</v>
       </c>
+      <c r="D3" t="n">
+        <v>9757.01</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -481,6 +492,9 @@
       <c r="C4" t="n">
         <v>3850.1</v>
       </c>
+      <c r="D4" t="n">
+        <v>3853.38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -494,6 +508,9 @@
       <c r="C5" t="n">
         <v>7109.48</v>
       </c>
+      <c r="D5" t="n">
+        <v>11027.34</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -506,6 +523,9 @@
       </c>
       <c r="C6" t="n">
         <v>14218.95</v>
+      </c>
+      <c r="D6" t="n">
+        <v>33082.02</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/RICH.xlsx
+++ b/backend/src/excel_handler/files/RICH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -463,6 +468,9 @@
       <c r="D2" t="n">
         <v>19471.63</v>
       </c>
+      <c r="E2" t="n">
+        <v>20175.64</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -479,6 +487,9 @@
       <c r="D3" t="n">
         <v>9757.01</v>
       </c>
+      <c r="E3" t="n">
+        <v>10429.6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -495,6 +506,9 @@
       <c r="D4" t="n">
         <v>3853.38</v>
       </c>
+      <c r="E4" t="n">
+        <v>3852.79</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -511,6 +525,9 @@
       <c r="D5" t="n">
         <v>11027.34</v>
       </c>
+      <c r="E5" t="n">
+        <v>11486.01</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -526,6 +543,9 @@
       </c>
       <c r="D6" t="n">
         <v>33082.02</v>
+      </c>
+      <c r="E6" t="n">
+        <v>34458.03</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/RICH.xlsx
+++ b/backend/src/excel_handler/files/RICH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -471,6 +476,9 @@
       <c r="E2" t="n">
         <v>20175.64</v>
       </c>
+      <c r="F2" t="n">
+        <v>20539.57</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -490,6 +498,9 @@
       <c r="E3" t="n">
         <v>10429.6</v>
       </c>
+      <c r="F3" t="n">
+        <v>10124.33</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -509,6 +520,9 @@
       <c r="E4" t="n">
         <v>3852.79</v>
       </c>
+      <c r="F4" t="n">
+        <v>3861.75</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -528,6 +542,9 @@
       <c r="E5" t="n">
         <v>11486.01</v>
       </c>
+      <c r="F5" t="n">
+        <v>11508.55</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -546,6 +563,9 @@
       </c>
       <c r="E6" t="n">
         <v>34458.03</v>
+      </c>
+      <c r="F6" t="n">
+        <v>34525.65</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/RICH.xlsx
+++ b/backend/src/excel_handler/files/RICH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -479,6 +484,9 @@
       <c r="F2" t="n">
         <v>20539.57</v>
       </c>
+      <c r="G2" t="n">
+        <v>19581.15</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -501,6 +509,9 @@
       <c r="F3" t="n">
         <v>10124.33</v>
       </c>
+      <c r="G3" t="n">
+        <v>9581.209999999999</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -523,6 +534,9 @@
       <c r="F4" t="n">
         <v>3861.75</v>
       </c>
+      <c r="G4" t="n">
+        <v>3846.3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -545,6 +559,9 @@
       <c r="F5" t="n">
         <v>11508.55</v>
       </c>
+      <c r="G5" t="n">
+        <v>11002.89</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -566,6 +583,9 @@
       </c>
       <c r="F6" t="n">
         <v>34525.65</v>
+      </c>
+      <c r="G6" t="n">
+        <v>33008.66</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/RICH.xlsx
+++ b/backend/src/excel_handler/files/RICH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -487,6 +492,9 @@
       <c r="G2" t="n">
         <v>19581.15</v>
       </c>
+      <c r="H2" t="n">
+        <v>19973.87</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -512,6 +520,9 @@
       <c r="G3" t="n">
         <v>9581.209999999999</v>
       </c>
+      <c r="H3" t="n">
+        <v>9611.27</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -537,6 +548,9 @@
       <c r="G4" t="n">
         <v>3846.3</v>
       </c>
+      <c r="H4" t="n">
+        <v>3856.42</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -562,6 +576,9 @@
       <c r="G5" t="n">
         <v>11002.89</v>
       </c>
+      <c r="H5" t="n">
+        <v>11147.19</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -586,6 +603,9 @@
       </c>
       <c r="G6" t="n">
         <v>33008.66</v>
+      </c>
+      <c r="H6" t="n">
+        <v>33441.56</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/RICH.xlsx
+++ b/backend/src/excel_handler/files/RICH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -495,6 +500,9 @@
       <c r="H2" t="n">
         <v>19973.87</v>
       </c>
+      <c r="I2" t="n">
+        <v>19641.72</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -523,6 +531,9 @@
       <c r="H3" t="n">
         <v>9611.27</v>
       </c>
+      <c r="I3" t="n">
+        <v>9679.25</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -551,6 +562,9 @@
       <c r="H4" t="n">
         <v>3856.42</v>
       </c>
+      <c r="I4" t="n">
+        <v>3845.27</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -579,6 +593,9 @@
       <c r="H5" t="n">
         <v>11147.19</v>
       </c>
+      <c r="I5" t="n">
+        <v>11055.41</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -606,6 +623,9 @@
       </c>
       <c r="H6" t="n">
         <v>33441.56</v>
+      </c>
+      <c r="I6" t="n">
+        <v>33166.24</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/RICH.xlsx
+++ b/backend/src/excel_handler/files/RICH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -503,6 +508,9 @@
       <c r="I2" t="n">
         <v>19641.72</v>
       </c>
+      <c r="J2" t="n">
+        <v>20078.69</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -534,6 +542,9 @@
       <c r="I3" t="n">
         <v>9679.25</v>
       </c>
+      <c r="J3" t="n">
+        <v>10473.23</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -565,6 +576,9 @@
       <c r="I4" t="n">
         <v>3845.27</v>
       </c>
+      <c r="J4" t="n">
+        <v>3841.58</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -596,6 +610,9 @@
       <c r="I5" t="n">
         <v>11055.41</v>
       </c>
+      <c r="J5" t="n">
+        <v>11464.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -626,6 +643,9 @@
       </c>
       <c r="I6" t="n">
         <v>33166.24</v>
+      </c>
+      <c r="J6" t="n">
+        <v>34393.5</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/RICH.xlsx
+++ b/backend/src/excel_handler/files/RICH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -511,6 +516,9 @@
       <c r="J2" t="n">
         <v>20078.69</v>
       </c>
+      <c r="K2" t="n">
+        <v>20126.08</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -545,6 +553,9 @@
       <c r="J3" t="n">
         <v>10473.23</v>
       </c>
+      <c r="K3" t="n">
+        <v>10354.08</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -579,6 +590,9 @@
       <c r="J4" t="n">
         <v>3841.58</v>
       </c>
+      <c r="K4" t="n">
+        <v>3846.46</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -613,6 +627,9 @@
       <c r="J5" t="n">
         <v>11464.5</v>
       </c>
+      <c r="K5" t="n">
+        <v>11442.21</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -646,6 +663,9 @@
       </c>
       <c r="J6" t="n">
         <v>34393.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>34326.62</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/RICH.xlsx
+++ b/backend/src/excel_handler/files/RICH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -519,6 +524,9 @@
       <c r="K2" t="n">
         <v>20126.08</v>
       </c>
+      <c r="L2" t="n">
+        <v>19567.37</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -556,6 +564,9 @@
       <c r="K3" t="n">
         <v>10354.08</v>
       </c>
+      <c r="L3" t="n">
+        <v>10029.87</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -593,6 +604,9 @@
       <c r="K4" t="n">
         <v>3846.46</v>
       </c>
+      <c r="L4" t="n">
+        <v>3852.14</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -630,6 +644,9 @@
       <c r="K5" t="n">
         <v>11442.21</v>
       </c>
+      <c r="L5" t="n">
+        <v>11149.79</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -666,6 +683,9 @@
       </c>
       <c r="K6" t="n">
         <v>34326.62</v>
+      </c>
+      <c r="L6" t="n">
+        <v>33449.38</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/RICH.xlsx
+++ b/backend/src/excel_handler/files/RICH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -527,6 +532,9 @@
       <c r="L2" t="n">
         <v>19567.37</v>
       </c>
+      <c r="M2" t="n">
+        <v>20455.42</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -567,6 +575,9 @@
       <c r="L3" t="n">
         <v>10029.87</v>
       </c>
+      <c r="M3" t="n">
+        <v>10139.29</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -607,6 +618,9 @@
       <c r="L4" t="n">
         <v>3852.14</v>
       </c>
+      <c r="M4" t="n">
+        <v>3844.82</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -647,6 +661,9 @@
       <c r="L5" t="n">
         <v>11149.79</v>
       </c>
+      <c r="M5" t="n">
+        <v>11479.84</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -686,6 +703,9 @@
       </c>
       <c r="L6" t="n">
         <v>33449.38</v>
+      </c>
+      <c r="M6" t="n">
+        <v>34439.53</v>
       </c>
     </row>
   </sheetData>
